--- a/data/trans_camb/P25_7-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_7-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,27</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>10,66</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,86</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 5,93</t>
+          <t>-24,14; 22,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 10,51</t>
+          <t>-27,03; 21,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 10,25</t>
+          <t>-29,54; 23,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 5,8</t>
+          <t>-17,99; 20,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 4,17</t>
+          <t>-25,57; 16,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 4,13</t>
+          <t>-10,3; 32,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-17,33; 16,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 13,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 24,58</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,25%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,77%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,9%</t>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,75; 29,47</t>
+          <t>-61,29; 139,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 48,32</t>
+          <t>-66,8; 129,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 26,22</t>
+          <t>-68,16; 112,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 13,78</t>
+          <t>-33,7; 62,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 13,38</t>
+          <t>-46,98; 50,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 12,83</t>
+          <t>-21,07; 104,17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-40,01; 58,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-46,05; 48,18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,84; 88,75</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 10,42</t>
+          <t>-11,39; 6,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,6</t>
+          <t>-12,67; 11,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 10,53</t>
+          <t>-3,49; 23,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 9,47</t>
+          <t>-11,11; 10,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 7,97</t>
+          <t>-15,8; 4,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 4,43</t>
+          <t>-10,96; 10,56</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 5,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 2,96</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 11,47</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>-12,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>-16,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>-14,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,66%</t>
+          <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 96,25</t>
+          <t>-45,9; 35,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 54,17</t>
+          <t>-52,51; 74,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 35,06</t>
+          <t>-15,79; 136,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 30,49</t>
+          <t>-25,24; 33,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 36,71</t>
+          <t>-35,69; 15,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 20,73</t>
+          <t>-25,28; 32,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-26,09; 21,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,98; 10,97</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,96; 41,66</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-1,42</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 8,14</t>
+          <t>-11,64; 9,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 9,58</t>
+          <t>-10,71; 11,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 6,5</t>
+          <t>-9,81; 12,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 3,2</t>
+          <t>-9,31; 8,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 4,84</t>
+          <t>-12,48; 6,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 3,97</t>
+          <t>-10,84; 7,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 6,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; 5,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 6,6</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,16%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-12,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,21%</t>
+          <t>-5,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 53,29</t>
+          <t>-39,59; 55,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 64,36</t>
+          <t>-37,32; 57,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 28,88</t>
+          <t>-34,27; 65,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 14,85</t>
+          <t>-32,31; 47,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 24,23</t>
+          <t>-41,9; 32,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 19,96</t>
+          <t>-36,4; 37,11</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 29,31</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-30,26; 27,84</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-29,04; 32,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 3,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 31,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 22,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 18,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 9,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 14,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 6,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 5,19</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 5,82</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 12,96</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 6,46</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; 2,32</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 9,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 3,43</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 1,7</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 8,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-12,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-11,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-32,53; 25,73</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; 29,59</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 65,57</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; 20,49</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-28,83; 7,39</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 31,74</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,42; 12,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-27,28; 6,95</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 30,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
